--- a/Assets/CSV/UIData/UI.xlsx
+++ b/Assets/CSV/UIData/UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\YukiNakui\MAGIC_LINE\Assets\CSV\UIData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F467450-AB99-46B3-B4F7-7B72EF94B447}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7455E8-C8D8-41EB-8BF2-2471A59B16C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>UI名</t>
     <rPh sb="2" eb="3">
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>Compass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LineGauge</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HeightMeter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThemeDisplay</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -140,8 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -422,13 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -742,6 +763,251 @@
         <v>0.3</v>
       </c>
       <c r="K9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.79800000000000004</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>180</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-0.7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K16" s="1">
         <v>0.3</v>
       </c>
     </row>

--- a/Assets/CSV/UIData/UI.xlsx
+++ b/Assets/CSV/UIData/UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\YukiNakui\MAGIC_LINE\Assets\CSV\UIData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE3A15\就職作品\MAGIC_LINE\Assets\CSV\UIData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7455E8-C8D8-41EB-8BF2-2471A59B16C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6DA858-E9F1-4BAE-8DB0-455311EA776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>UI名</t>
     <rPh sb="2" eb="3">
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>ThemeDisplay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MiniMap</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -440,15 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1009,6 +1013,146 @@
       </c>
       <c r="K16" s="1">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
